--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C1qtnf1-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>C1qtnf1</t>
   </si>
   <si>
     <t>Avpr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.324926</v>
+        <v>4.937483333333333</v>
       </c>
       <c r="H2">
-        <v>12.974778</v>
+        <v>14.81245</v>
       </c>
       <c r="I2">
-        <v>0.2395834002701107</v>
+        <v>0.2144582670332307</v>
       </c>
       <c r="J2">
-        <v>0.2395834002701107</v>
+        <v>0.2144582670332307</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N2">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O2">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P2">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q2">
-        <v>0.028532978464</v>
+        <v>0.2835678969722222</v>
       </c>
       <c r="R2">
-        <v>0.256796806176</v>
+        <v>2.55211107275</v>
       </c>
       <c r="S2">
-        <v>0.01674004249812376</v>
+        <v>0.08633480328443098</v>
       </c>
       <c r="T2">
-        <v>0.01674004249812376</v>
+        <v>0.08633480328443101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.324926</v>
+        <v>4.937483333333333</v>
       </c>
       <c r="H3">
-        <v>12.974778</v>
+        <v>14.81245</v>
       </c>
       <c r="I3">
-        <v>0.2395834002701107</v>
+        <v>0.2144582670332307</v>
       </c>
       <c r="J3">
-        <v>0.2395834002701107</v>
+        <v>0.2144582670332307</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N3">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q3">
-        <v>0.3798308593820001</v>
+        <v>0.4208233503277777</v>
       </c>
       <c r="R3">
-        <v>3.418477734438</v>
+        <v>3.78741015295</v>
       </c>
       <c r="S3">
-        <v>0.222843357771987</v>
+        <v>0.1281234637487997</v>
       </c>
       <c r="T3">
-        <v>0.222843357771987</v>
+        <v>0.1281234637487997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +670,40 @@
         <v>36.136922</v>
       </c>
       <c r="I4">
-        <v>0.6672797521511172</v>
+        <v>0.5231991782611944</v>
       </c>
       <c r="J4">
-        <v>0.6672797521511172</v>
+        <v>0.5231991782611944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N4">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O4">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P4">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q4">
-        <v>0.07946910669155555</v>
+        <v>0.6918012195544444</v>
       </c>
       <c r="R4">
-        <v>0.7152219602239999</v>
+        <v>6.22621097599</v>
       </c>
       <c r="S4">
-        <v>0.0466238119859456</v>
+        <v>0.21062511955651</v>
       </c>
       <c r="T4">
-        <v>0.04662381198594561</v>
+        <v>0.21062511955651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,40 +732,40 @@
         <v>36.136922</v>
       </c>
       <c r="I5">
-        <v>0.6672797521511172</v>
+        <v>0.5231991782611944</v>
       </c>
       <c r="J5">
-        <v>0.6672797521511172</v>
+        <v>0.5231991782611944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N5">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q5">
-        <v>1.057892330695778</v>
+        <v>1.026653969233555</v>
       </c>
       <c r="R5">
-        <v>9.521030976262001</v>
+        <v>9.239885723101999</v>
       </c>
       <c r="S5">
-        <v>0.6206559401651717</v>
+        <v>0.3125740587046844</v>
       </c>
       <c r="T5">
-        <v>0.6206559401651717</v>
+        <v>0.3125740587046844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G6">
-        <v>0.03828333333333333</v>
+        <v>2.065339666666667</v>
       </c>
       <c r="H6">
-        <v>0.11485</v>
+        <v>6.196019</v>
       </c>
       <c r="I6">
-        <v>0.002120741759205607</v>
+        <v>0.08970747561983136</v>
       </c>
       <c r="J6">
-        <v>0.002120741759205607</v>
+        <v>0.08970747561983136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N6">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O6">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P6">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q6">
-        <v>0.0002525679111111111</v>
+        <v>0.1186158992894444</v>
       </c>
       <c r="R6">
-        <v>0.0022731112</v>
+        <v>1.067543093605</v>
       </c>
       <c r="S6">
-        <v>0.0001481793276855692</v>
+        <v>0.03611368014822644</v>
       </c>
       <c r="T6">
-        <v>0.0001481793276855692</v>
+        <v>0.03611368014822645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G7">
-        <v>0.03828333333333333</v>
+        <v>2.065339666666667</v>
       </c>
       <c r="H7">
-        <v>0.11485</v>
+        <v>6.196019</v>
       </c>
       <c r="I7">
-        <v>0.002120741759205607</v>
+        <v>0.08970747561983136</v>
       </c>
       <c r="J7">
-        <v>0.002120741759205607</v>
+        <v>0.08970747561983136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N7">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q7">
-        <v>0.003362182705555555</v>
+        <v>0.1760295882365556</v>
       </c>
       <c r="R7">
-        <v>0.03025964435</v>
+        <v>1.584266294129</v>
       </c>
       <c r="S7">
-        <v>0.001972562431520038</v>
+        <v>0.05359379547160491</v>
       </c>
       <c r="T7">
-        <v>0.001972562431520038</v>
+        <v>0.05359379547160491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.64301</v>
+        <v>1.956235666666667</v>
       </c>
       <c r="H8">
-        <v>4.92903</v>
+        <v>5.868707000000001</v>
       </c>
       <c r="I8">
-        <v>0.09101610581956653</v>
+        <v>0.0849685725822393</v>
       </c>
       <c r="J8">
-        <v>0.09101610581956653</v>
+        <v>0.0849685725822393</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N8">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O8">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P8">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q8">
-        <v>0.01083948464</v>
+        <v>0.1123498747294445</v>
       </c>
       <c r="R8">
-        <v>0.09755536175999999</v>
+        <v>1.011148872565</v>
       </c>
       <c r="S8">
-        <v>0.00635942839827602</v>
+        <v>0.03420593246755015</v>
       </c>
       <c r="T8">
-        <v>0.006359428398276022</v>
+        <v>0.03420593246755016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,170 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.64301</v>
+        <v>1.956235666666667</v>
       </c>
       <c r="H9">
-        <v>4.92903</v>
+        <v>5.868707000000001</v>
       </c>
       <c r="I9">
-        <v>0.09101610581956653</v>
+        <v>0.0849685725822393</v>
       </c>
       <c r="J9">
-        <v>0.09101610581956653</v>
+        <v>0.0849685725822393</v>
       </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.08523033333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.255691</v>
+      </c>
+      <c r="O9">
+        <v>0.5974284205558126</v>
+      </c>
+      <c r="P9">
+        <v>0.5974284205558126</v>
+      </c>
+      <c r="Q9">
+        <v>0.1667306179485556</v>
+      </c>
+      <c r="R9">
+        <v>1.500575561537</v>
+      </c>
+      <c r="S9">
+        <v>0.05076264011468915</v>
+      </c>
+      <c r="T9">
+        <v>0.05076264011468915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08782366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.263471</v>
-      </c>
-      <c r="O9">
-        <v>0.9301285377899691</v>
-      </c>
-      <c r="P9">
-        <v>0.9301285377899691</v>
-      </c>
-      <c r="Q9">
-        <v>0.14429516257</v>
-      </c>
-      <c r="R9">
-        <v>1.29865646313</v>
-      </c>
-      <c r="S9">
-        <v>0.0846566774212905</v>
-      </c>
-      <c r="T9">
-        <v>0.0846566774212905</v>
+      <c r="G10">
+        <v>2.018350333333334</v>
+      </c>
+      <c r="H10">
+        <v>6.055051000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.08766650650350422</v>
+      </c>
+      <c r="J10">
+        <v>0.0876665065035042</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.05743166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.172295</v>
+      </c>
+      <c r="O10">
+        <v>0.4025715794441874</v>
+      </c>
+      <c r="P10">
+        <v>0.4025715794441875</v>
+      </c>
+      <c r="Q10">
+        <v>0.1159172235605556</v>
+      </c>
+      <c r="R10">
+        <v>1.043255012045</v>
+      </c>
+      <c r="S10">
+        <v>0.03529204398746982</v>
+      </c>
+      <c r="T10">
+        <v>0.03529204398746982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.018350333333334</v>
+      </c>
+      <c r="H11">
+        <v>6.055051000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.08766650650350422</v>
+      </c>
+      <c r="J11">
+        <v>0.0876665065035042</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.08523033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.255691</v>
+      </c>
+      <c r="O11">
+        <v>0.5974284205558126</v>
+      </c>
+      <c r="P11">
+        <v>0.5974284205558126</v>
+      </c>
+      <c r="Q11">
+        <v>0.1720246716934445</v>
+      </c>
+      <c r="R11">
+        <v>1.548222045241</v>
+      </c>
+      <c r="S11">
+        <v>0.05237446251603439</v>
+      </c>
+      <c r="T11">
+        <v>0.05237446251603439</v>
       </c>
     </row>
   </sheetData>
